--- a/assets/csv_files/marks_distribution/T_marks_distribution_report.xlsx
+++ b/assets/csv_files/marks_distribution/T_marks_distribution_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="16">
   <si>
     <t>Marks Distribution Tables</t>
   </si>
@@ -28,22 +28,19 @@
     <t>Number of Students</t>
   </si>
   <si>
-    <t>0-10</t>
-  </si>
-  <si>
-    <t>11-20</t>
-  </si>
-  <si>
-    <t>21-30</t>
-  </si>
-  <si>
-    <t>31-40</t>
-  </si>
-  <si>
-    <t>41-50</t>
-  </si>
-  <si>
-    <t>51-60</t>
+    <t>0-20</t>
+  </si>
+  <si>
+    <t>21-40</t>
+  </si>
+  <si>
+    <t>41-60</t>
+  </si>
+  <si>
+    <t>61-80</t>
+  </si>
+  <si>
+    <t>81-100</t>
   </si>
   <si>
     <t>Subject: BSA211</t>
@@ -117,13 +114,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>15</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>7629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -141,7 +138,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17716500"/>
+          <a:off x="0" y="16383000"/>
           <a:ext cx="7315215" cy="4389129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -155,13 +152,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>15</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>7629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -179,7 +176,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="24384000"/>
+          <a:off x="0" y="23050500"/>
           <a:ext cx="7315215" cy="4389129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -193,13 +190,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>15</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>7629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -217,7 +214,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="31051500"/>
+          <a:off x="0" y="29718000"/>
           <a:ext cx="7315215" cy="4389129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -231,13 +228,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>15</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>7629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -255,7 +252,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="37719000"/>
+          <a:off x="0" y="36385500"/>
           <a:ext cx="7315215" cy="4389129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -269,13 +266,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>15</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>7629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -293,7 +290,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="44386500"/>
+          <a:off x="0" y="43053000"/>
           <a:ext cx="7315215" cy="4389129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -307,13 +304,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>261</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>15</xdr:colOff>
-      <xdr:row>291</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>7629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -331,7 +328,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="51054000"/>
+          <a:off x="0" y="49720500"/>
           <a:ext cx="7315215" cy="4389129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -345,13 +342,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>303</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>15</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>7629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -369,7 +366,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="57721500"/>
+          <a:off x="0" y="56388000"/>
           <a:ext cx="7315215" cy="4389129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -667,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,7 +709,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -720,7 +717,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -728,33 +725,33 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
+      <c r="B18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -762,352 +759,296 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
         <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35">
-        <v>10</v>
-      </c>
-    </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
         <v>6</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>5</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
